--- a/ESI_PHA_BOT_RESP_BUILDER_EN_CA.xlsx
+++ b/ESI_PHA_BOT_RESP_BUILDER_EN_CA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2243665\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1271463-84CF-4372-ADA4-4B11056597C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC525B36-3DE3-43DC-B069-17CC87B7EFD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{1CB3E365-0F38-41A0-882A-60B13BA55A8E}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{1CB3E365-0F38-41A0-882A-60B13BA55A8E}"/>
   </bookViews>
   <sheets>
     <sheet name="PROMPTS_CONFIG" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="46">
   <si>
     <t>RESPONSE_ID</t>
   </si>
@@ -169,6 +169,12 @@
   </si>
   <si>
     <t>ESI_PHA_ORD_MGMT_ORD_DETAILS_NO</t>
+  </si>
+  <si>
+    <t>ESI_PHA_ORD_INFO_UNAUTHORIZED_ACCESS_MSG</t>
+  </si>
+  <si>
+    <t>Access Denied. You have passed Invalid API key.</t>
   </si>
 </sst>
 </file>
@@ -555,15 +561,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29329887-49B3-45E3-9F81-89EC8C728205}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="41.90625" customWidth="1"/>
+    <col min="1" max="1" width="47" customWidth="1"/>
     <col min="2" max="2" width="105.26953125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="31.26953125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="38" customWidth="1"/>
@@ -697,6 +703,14 @@
         <v>8</v>
       </c>
     </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" t="s">
+        <v>45</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -706,8 +720,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA3A7FAE-3539-4F42-9974-BD06304157E9}">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/ESI_PHA_BOT_RESP_BUILDER_EN_CA.xlsx
+++ b/ESI_PHA_BOT_RESP_BUILDER_EN_CA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2243665\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC525B36-3DE3-43DC-B069-17CC87B7EFD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2E73FC2-54A8-49CB-9438-B8CB091BC091}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{1CB3E365-0F38-41A0-882A-60B13BA55A8E}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="46">
   <si>
     <t>RESPONSE_ID</t>
   </si>
@@ -174,7 +174,7 @@
     <t>ESI_PHA_ORD_INFO_UNAUTHORIZED_ACCESS_MSG</t>
   </si>
   <si>
-    <t>Access Denied. You have passed Invalid API key.</t>
+    <t>Unfortunately, you do not have the necessary permissions to access this resource. Please ensure you are logged in with the correct credentials. If you continue to experience issues, please contact support.</t>
   </si>
 </sst>
 </file>
@@ -563,14 +563,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29329887-49B3-45E3-9F81-89EC8C728205}">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="B2" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="47" customWidth="1"/>
-    <col min="2" max="2" width="105.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="87.08984375" customWidth="1"/>
     <col min="3" max="3" width="31.26953125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="38" customWidth="1"/>
     <col min="5" max="5" width="11.54296875" customWidth="1"/>
@@ -703,12 +703,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>44</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="2" t="s">
         <v>45</v>
+      </c>
+      <c r="E12" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/ESI_PHA_BOT_RESP_BUILDER_EN_CA.xlsx
+++ b/ESI_PHA_BOT_RESP_BUILDER_EN_CA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2243665\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2E73FC2-54A8-49CB-9438-B8CB091BC091}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B3FA40C-EBB6-4772-AD73-E4718DC504BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{1CB3E365-0F38-41A0-882A-60B13BA55A8E}"/>
   </bookViews>
@@ -174,7 +174,7 @@
     <t>ESI_PHA_ORD_INFO_UNAUTHORIZED_ACCESS_MSG</t>
   </si>
   <si>
-    <t>Unfortunately, you do not have the necessary permissions to access this resource. Please ensure you are logged in with the correct credentials. If you continue to experience issues, please contact support.</t>
+    <t>Access Denied. Please ensure you are logged in with the correct credentials.</t>
   </si>
 </sst>
 </file>
@@ -218,7 +218,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -227,6 +227,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -563,8 +564,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29329887-49B3-45E3-9F81-89EC8C728205}">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B2" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -703,11 +704,11 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>44</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="4" t="s">
         <v>45</v>
       </c>
       <c r="E12" t="s">

--- a/ESI_PHA_BOT_RESP_BUILDER_EN_CA.xlsx
+++ b/ESI_PHA_BOT_RESP_BUILDER_EN_CA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2243665\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B3FA40C-EBB6-4772-AD73-E4718DC504BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31C24C73-4888-42C4-8EC2-5AE104D4FEBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{1CB3E365-0F38-41A0-882A-60B13BA55A8E}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{1CB3E365-0F38-41A0-882A-60B13BA55A8E}"/>
   </bookViews>
   <sheets>
     <sheet name="PROMPTS_CONFIG" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="56">
   <si>
     <t>RESPONSE_ID</t>
   </si>
@@ -175,13 +175,59 @@
   </si>
   <si>
     <t>Access Denied. Please ensure you are logged in with the correct credentials.</t>
+  </si>
+  <si>
+    <t>ESI_PHA_ORD_INFO_FAQ_WHEN_CHARGED_FOR_ORDER</t>
+  </si>
+  <si>
+    <t>ESI_PHA_ORD_INFO_FAQ_WHERE_TO_FIND_PRESCRIPTION_ID_CARD</t>
+  </si>
+  <si>
+    <t>ESI_PHA_ORD_INFO_FAQ_HOW_TO_CREATE_ONLINE_ACCOUNT</t>
+  </si>
+  <si>
+    <t>ESI_PHA_ORD_INFO_FAQ_HOW_GET_ALL_MY_MEDICATIONS_AT_HOME_DELIVERY</t>
+  </si>
+  <si>
+    <t>ESI_PHA_ORD_INFO_FAQ_WHAT_TEMPERATURE-SENSITIVE_MEDICATION</t>
+  </si>
+  <si>
+    <t>You won’t be charged for your order until your medication is shipped. If you are enrolled in our Extended Payment Plan, only the first payment will be processed when your medication ships.
+To check the status of your order, you can log in and go to My Medications under Prescriptions. After you log in, you can also check if there are any ways you could save on your medications.</t>
+  </si>
+  <si>
+    <t>We offer a can’t-lose-it digital ID card that you can keep with you 24/7. Just download it to your phone, print a copy or do both. You can even save it to your mobile wallet.
+How to get your digital prescription ID card:
+Online
+Depending on your plan, you can log in and select Prescription ID Card under Account in the main menu. If it's available, you can print your prescription ID card from there. Just click on the Download Card button to download and/or print your prescription ID Card.
+On the Express Scripts® mobile app
+Tap the menu icon on the top-left corner of your screen. Go to My Account and choose Prescription ID Card. You can use the mobile app to show your prescription ID number at your pharmacy or doctor's office.</t>
+  </si>
+  <si>
+    <t>Creating an online Express Scripts account is simple. In just a couple minutes, your account can be ready to go. To register, you can use your prescription ID or your social security number.
+Once you create an online account, you can:
+Sign up for text alerts so that you never miss an opportunity to save
+Get transparent pricing on all your medications
+Receive personalized savings recommendations that take the guesswork out of your prescription benefit
+Transfer medications to our home delivery pharmacy
+Easily refill prescriptions and track your orders in real time
+And so much more!
+Some of these features may depend on your plan.</t>
+  </si>
+  <si>
+    <t>For the most part, yes! Express Scripts Pharmacy dispenses most brand and generic maintenance medications in a 3-month supply. However, just like other pharmacies, we are unable to stock all medications all the time.
+If we don’t carry a certain medication, are running low on supply or are out-of-stock, we will let you know as soon as your order is placed. Additionally, your doctor may be able to check availability through Real Time Prescription Benefit when prescribing, and if your medication is not available at home delivery, they can send the prescription to a network retail pharmacy of your choice.</t>
+  </si>
+  <si>
+    <t>We ship your medication in a tamper-evident, weather-resistant package. If your medication is sensitive to extreme hot or cold weather, we ship it in a temperature-controlled package. We carefully calculate how long your order will travel and the weather conditions to make sure that we include enough ice packs to keep your medication safe.
+Medications that require temperature control are sent via expedited shipping at no extra cost to you.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -193,6 +239,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -218,7 +271,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -228,6 +281,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -562,15 +621,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29329887-49B3-45E3-9F81-89EC8C728205}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="47" customWidth="1"/>
+    <col min="1" max="1" width="68.1796875" style="2" customWidth="1"/>
     <col min="2" max="2" width="87.08984375" customWidth="1"/>
     <col min="3" max="3" width="31.26953125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="38" customWidth="1"/>
@@ -578,7 +637,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -595,7 +654,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B2" t="s">
@@ -606,7 +665,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="A3" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B3" t="s">
@@ -617,7 +676,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+      <c r="A4" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B4" t="s">
@@ -628,7 +687,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+      <c r="A5" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B5" t="s">
@@ -639,7 +698,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+      <c r="A6" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B6" t="s">
@@ -650,7 +709,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+      <c r="A7" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B7" t="s">
@@ -661,7 +720,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+      <c r="A8" s="2" t="s">
         <v>40</v>
       </c>
       <c r="B8" t="s">
@@ -672,7 +731,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+      <c r="A9" s="2" t="s">
         <v>34</v>
       </c>
       <c r="B9" t="s">
@@ -683,7 +742,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
+      <c r="A10" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B10" t="s">
@@ -694,7 +753,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
+      <c r="A11" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B11" t="s">
@@ -705,13 +764,68 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
+      <c r="A12" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>45</v>
       </c>
       <c r="E12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="217.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="174" x14ac:dyDescent="0.35">
+      <c r="A15" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="116" x14ac:dyDescent="0.35">
+      <c r="A16" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="87" x14ac:dyDescent="0.35">
+      <c r="A17" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E17" t="s">
         <v>8</v>
       </c>
     </row>
@@ -722,10 +836,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA3A7FAE-3539-4F42-9974-BD06304157E9}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -832,11 +946,6 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>18</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/ESI_PHA_BOT_RESP_BUILDER_EN_CA.xlsx
+++ b/ESI_PHA_BOT_RESP_BUILDER_EN_CA.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2243665\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cognizantonline-my.sharepoint.com/personal/2128454_cognizant_com/Documents/Desktop/ESI/Kore-AI-Verbiage-proper-format/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31C24C73-4888-42C4-8EC2-5AE104D4FEBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{31C24C73-4888-42C4-8EC2-5AE104D4FEBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B93A3B73-9D8E-4A7E-9B4D-2F5D1A82C683}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{1CB3E365-0F38-41A0-882A-60B13BA55A8E}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{1CB3E365-0F38-41A0-882A-60B13BA55A8E}"/>
   </bookViews>
   <sheets>
     <sheet name="PROMPTS_CONFIG" sheetId="1" r:id="rId1"/>
@@ -192,35 +192,19 @@
     <t>ESI_PHA_ORD_INFO_FAQ_WHAT_TEMPERATURE-SENSITIVE_MEDICATION</t>
   </si>
   <si>
-    <t>You won’t be charged for your order until your medication is shipped. If you are enrolled in our Extended Payment Plan, only the first payment will be processed when your medication ships.
-To check the status of your order, you can log in and go to My Medications under Prescriptions. After you log in, you can also check if there are any ways you could save on your medications.</t>
-  </si>
-  <si>
-    <t>We offer a can’t-lose-it digital ID card that you can keep with you 24/7. Just download it to your phone, print a copy or do both. You can even save it to your mobile wallet.
-How to get your digital prescription ID card:
-Online
-Depending on your plan, you can log in and select Prescription ID Card under Account in the main menu. If it's available, you can print your prescription ID card from there. Just click on the Download Card button to download and/or print your prescription ID Card.
-On the Express Scripts® mobile app
-Tap the menu icon on the top-left corner of your screen. Go to My Account and choose Prescription ID Card. You can use the mobile app to show your prescription ID number at your pharmacy or doctor's office.</t>
-  </si>
-  <si>
-    <t>Creating an online Express Scripts account is simple. In just a couple minutes, your account can be ready to go. To register, you can use your prescription ID or your social security number.
-Once you create an online account, you can:
-Sign up for text alerts so that you never miss an opportunity to save
-Get transparent pricing on all your medications
-Receive personalized savings recommendations that take the guesswork out of your prescription benefit
-Transfer medications to our home delivery pharmacy
-Easily refill prescriptions and track your orders in real time
-And so much more!
-Some of these features may depend on your plan.</t>
-  </si>
-  <si>
-    <t>For the most part, yes! Express Scripts Pharmacy dispenses most brand and generic maintenance medications in a 3-month supply. However, just like other pharmacies, we are unable to stock all medications all the time.
-If we don’t carry a certain medication, are running low on supply or are out-of-stock, we will let you know as soon as your order is placed. Additionally, your doctor may be able to check availability through Real Time Prescription Benefit when prescribing, and if your medication is not available at home delivery, they can send the prescription to a network retail pharmacy of your choice.</t>
-  </si>
-  <si>
-    <t>We ship your medication in a tamper-evident, weather-resistant package. If your medication is sensitive to extreme hot or cold weather, we ship it in a temperature-controlled package. We carefully calculate how long your order will travel and the weather conditions to make sure that we include enough ice packs to keep your medication safe.
-Medications that require temperature control are sent via expedited shipping at no extra cost to you.</t>
+    <t>You won’t be charged for your order until your medication is shipped. If you are enrolled in our Extended Payment Plan, only the first payment will be processed when your medication ships. To check the status of your order, you can log in and go to My Medications under Prescriptions. After you log in, you can also check if there are any ways you could save on your medications.</t>
+  </si>
+  <si>
+    <t>Creating an online Express Scripts account is simple. In just a couple minutes, your account can be ready to go. To register, you can use your prescription ID or your social security number.</t>
+  </si>
+  <si>
+    <t>We offer a can’t-lose-it digital ID card that you can keep with you 24/7. Just download it to your phone, print a copy or do both. You can even save it to your mobile wallet.</t>
+  </si>
+  <si>
+    <t>For the most part, yes! Express Scripts Pharmacy dispenses most brand and generic maintenance medications in a 3-month supply. However, just like other pharmacies, we are unable to stock all medications all the time.</t>
+  </si>
+  <si>
+    <t>We ship your medication in a tamper-evident, weather-resistant package. If your medication is sensitive to extreme hot or cold weather, we ship it in a temperature-controlled package. We carefully calculate how long your order will travel and the weather conditions to make sure that we include enough ice packs to keep your medication safe. Medications that require temperature control are sent via expedited shipping at no extra cost to you.</t>
   </si>
 </sst>
 </file>
@@ -271,7 +255,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -280,7 +264,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -302,6 +285,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -623,8 +610,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29329887-49B3-45E3-9F81-89EC8C728205}">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -637,7 +624,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -767,15 +754,15 @@
       <c r="A12" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" t="s">
         <v>45</v>
       </c>
       <c r="E12" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="5" t="s">
+    <row r="13" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+      <c r="A13" s="4" t="s">
         <v>46</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -785,30 +772,30 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="217.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="5" t="s">
+    <row r="14" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A14" s="4" t="s">
         <v>47</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A15" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="E14" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="174" x14ac:dyDescent="0.35">
-      <c r="A15" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="E15" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="116" x14ac:dyDescent="0.35">
-      <c r="A16" s="5" t="s">
+    <row r="16" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="4" t="s">
         <v>49</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -818,8 +805,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="87" x14ac:dyDescent="0.35">
-      <c r="A17" s="5" t="s">
+    <row r="17" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A17" s="4" t="s">
         <v>50</v>
       </c>
       <c r="B17" s="2" t="s">
@@ -838,7 +825,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA3A7FAE-3539-4F42-9974-BD06304157E9}">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>

--- a/ESI_PHA_BOT_RESP_BUILDER_EN_CA.xlsx
+++ b/ESI_PHA_BOT_RESP_BUILDER_EN_CA.xlsx
@@ -2,13 +2,13 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cognizantonline-my.sharepoint.com/personal/2128454_cognizant_com/Documents/Desktop/ESI/Kore-AI-Verbiage-proper-format/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2243665\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{31C24C73-4888-42C4-8EC2-5AE104D4FEBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B93A3B73-9D8E-4A7E-9B4D-2F5D1A82C683}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E44FF111-D831-4E21-8C5D-ED8FF9C6912B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{1CB3E365-0F38-41A0-882A-60B13BA55A8E}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="PROMPTS_CONFIG" sheetId="1" r:id="rId1"/>
     <sheet name="RICH_CARDS_CONFIG" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -42,57 +42,147 @@
     <t>RESPONSE_ID</t>
   </si>
   <si>
+    <t>WEB_RESPONSE_MSG</t>
+  </si>
+  <si>
+    <t>ANDROID_RESPONSE_MSG</t>
+  </si>
+  <si>
+    <t>IOS_RESPONSE_MSG</t>
+  </si>
+  <si>
+    <t>MEDIA_TYPE</t>
+  </si>
+  <si>
+    <t>ESI_PHA_ORD_INFO_ASK_ORD_TITLE</t>
+  </si>
+  <si>
+    <t>Hello! Welcome to the ESI pharmacy chatbot. I'm in beta mode and still in learning phase. How may I assist you?</t>
+  </si>
+  <si>
+    <t>TEXT</t>
+  </si>
+  <si>
+    <t>ESI_PHA_ORD_INFO_ASK_ORD_ID</t>
+  </si>
+  <si>
+    <t>Please Enter Your Order Id</t>
+  </si>
+  <si>
+    <t>ESI_PHA_ORD_INFO_CNFN_MSG</t>
+  </si>
+  <si>
+    <t>Alright! I need your consent to view the details of your order details. Please say 'Yes' to confirm or say 'No' to Cancel.</t>
+  </si>
+  <si>
+    <t>ESI_PHA_ORD_INFO_ORD_ID_RESP</t>
+  </si>
+  <si>
+    <t>Thanks for your confirmation. Here is your order status, Status: ${order_status}. Is there anything else I can assist with you?</t>
+  </si>
+  <si>
+    <t>ESI_PHA_ORD_INFO_ORD_FALLBACK</t>
+  </si>
+  <si>
+    <t>We are unable to fetch the requested details at this point. Please try again after sometime.</t>
+  </si>
+  <si>
+    <t>ESI_PHA_ORD_INFO_ASK_MEMBER_ID</t>
+  </si>
+  <si>
+    <t>Please Enter Your Member Id</t>
+  </si>
+  <si>
+    <t>ESI_PHA_ORD_INFO_CNFN_ERROR_MSG</t>
+  </si>
+  <si>
+    <t>Something Went Wrong . Please try again later.</t>
+  </si>
+  <si>
+    <t>ESI_PHA_ORD_INFO_MEMBER_ID_RESP</t>
+  </si>
+  <si>
+    <t>Thanks for your confirmation. Here is your member status, Status: ${member_status}. Is there anything else I can assist with you?</t>
+  </si>
+  <si>
+    <t>ESI_PHA_ORD_INFO_INVALID_MSG</t>
+  </si>
+  <si>
+    <t>You’ve entered an invalid Id. Please Enter Correct ${dynamic_entity}</t>
+  </si>
+  <si>
+    <t>ESI_PHA_ORD_INFO_MAX_NO_ATTEMPTS_MSG</t>
+  </si>
+  <si>
+    <t>You’ve reached the maximum number of attempts.</t>
+  </si>
+  <si>
+    <t>ESI_PHA_ORD_INFO_UNAUTHORIZED_ACCESS_MSG</t>
+  </si>
+  <si>
+    <t>Access Denied. Please ensure you are logged in with the correct credentials.</t>
+  </si>
+  <si>
+    <t>You won’t be charged for your order until your medication is shipped. If you are enrolled in our Extended Payment Plan, only the first payment will be processed when your medication ships. To check the status of your order, you can log in and go to My Medications under Prescriptions. After you log in, you can also check if there are any ways you could save on your medications.</t>
+  </si>
+  <si>
+    <t>We offer a can’t-lose-it digital ID card that you can keep with you 24/7. Just download it to your phone, print a copy or do both. You can even save it to your mobile wallet.</t>
+  </si>
+  <si>
+    <t>Creating an online Express Scripts account is simple. In just a couple minutes, your account can be ready to go. To register, you can use your prescription ID or your social security number.</t>
+  </si>
+  <si>
+    <t>For the most part, yes! Express Scripts Pharmacy dispenses most brand and generic maintenance medications in a 3-month supply. However, just like other pharmacies, we are unable to stock all medications all the time.</t>
+  </si>
+  <si>
+    <t>We ship your medication in a tamper-evident, weather-resistant package. If your medication is sensitive to extreme hot or cold weather, we ship it in a temperature-controlled package. We carefully calculate how long your order will travel and the weather conditions to make sure that we include enough ice packs to keep your medication safe. Medications that require temperature control are sent via expedited shipping at no extra cost to you.</t>
+  </si>
+  <si>
     <t>CHANNEL_ID</t>
   </si>
   <si>
-    <t>WEB_RESPONSE_MSG</t>
-  </si>
-  <si>
-    <t>ANDROID_RESPONSE_MSG</t>
-  </si>
-  <si>
-    <t>IOS_RESPONSE_MSG</t>
+    <t>BUTTON_ID</t>
+  </si>
+  <si>
+    <t>BUTTON_LABEL</t>
+  </si>
+  <si>
+    <t>DATA</t>
   </si>
   <si>
     <t>ESI_PHA_&lt;USECASE_ID&gt;_&lt;STEP_ID1&gt;</t>
   </si>
   <si>
-    <t>MEDIA_TYPE</t>
+    <t>WEB</t>
+  </si>
+  <si>
+    <t>ESI_PHA_ORD_MGMT_ORD_DETAILS_QR</t>
   </si>
   <si>
     <t>QUICK_REPLIES</t>
   </si>
   <si>
-    <t>TEXT</t>
-  </si>
-  <si>
-    <t>WEB</t>
-  </si>
-  <si>
-    <t>BUTTON_ID</t>
-  </si>
-  <si>
-    <t>BUTTON_LABEL</t>
+    <t>ESI_PHA_ORD_MGMT_ORD_DETAILS_YES</t>
   </si>
   <si>
     <t>Yes</t>
   </si>
   <si>
+    <t>ESI_PHA_ORD_MGMT_ORD_DETAILS_NO</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
     <t>ESI_PHA_&lt;USECASE_ID&gt;_&lt;STEP_ID3&gt;</t>
   </si>
   <si>
     <t>HYPERLINK</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
     <t>https://test.com</t>
   </si>
   <si>
-    <t>DATA</t>
-  </si>
-  <si>
     <t>ESI_PHA_ORD_MGMT_ORD_DETAILS_TABLE</t>
   </si>
   <si>
@@ -102,109 +192,19 @@
     <t>{ "text": "Account details", "columns": [["S2","center"], ["Name"], ["Designation"], ["Salary","right"]], "table_design": "regular", "elements": [ { "Values": [ "1", "Peter", "Producer", "1,000" ] }, { "Values": [ "2", "Sam", "2,000" ] } ], "speech_hint": "Here is your account details" }</t>
   </si>
   <si>
-    <t>ESI_PHA_ORD_INFO_ASK_ORD_ID</t>
-  </si>
-  <si>
-    <t>ESI_PHA_ORD_INFO_ORD_ID_RESP</t>
-  </si>
-  <si>
-    <t>Alright! I need your consent to view the details of your order details. Please say 'Yes' to confirm or say 'No' to Cancel.</t>
-  </si>
-  <si>
-    <t>ESI_PHA_ORD_INFO_ORD_FALLBACK</t>
-  </si>
-  <si>
-    <t>ESI_PHA_ORD_INFO_CNFN_MSG</t>
-  </si>
-  <si>
-    <t>Thanks for your confirmation. Here is your order status, Status: ${order_status}. Is there anything else I can assist with you?</t>
-  </si>
-  <si>
-    <t>ESI_PHA_ORD_INFO_ASK_ORD_TITLE</t>
-  </si>
-  <si>
-    <t>Hello! Welcome to the ESI pharmacy chatbot. I'm in beta mode and still in learning phase. How may I assist you?</t>
-  </si>
-  <si>
-    <t>We are unable to fetch the requested details at this point. Please try again after sometime.</t>
-  </si>
-  <si>
-    <t>ESI_PHA_ORD_INFO_ASK_MEMBER_ID</t>
-  </si>
-  <si>
-    <t>Please Enter Your Member Id</t>
-  </si>
-  <si>
-    <t>Please Enter Your Order Id</t>
-  </si>
-  <si>
-    <t>Something Went Wrong . Please try again later.</t>
-  </si>
-  <si>
-    <t>ESI_PHA_ORD_INFO_MEMBER_ID_RESP</t>
-  </si>
-  <si>
-    <t>Thanks for your confirmation. Here is your member status, Status: ${member_status}. Is there anything else I can assist with you?</t>
-  </si>
-  <si>
-    <t>ESI_PHA_ORD_INFO_INVALID_MSG</t>
-  </si>
-  <si>
-    <t>ESI_PHA_ORD_INFO_MAX_NO_ATTEMPTS_MSG</t>
-  </si>
-  <si>
-    <t>You’ve reached the maximum number of attempts.</t>
-  </si>
-  <si>
-    <t>You’ve entered an invalid Id. Please Enter Correct ${dynamic_entity}</t>
-  </si>
-  <si>
-    <t>ESI_PHA_ORD_INFO_CNFN_ERROR_MSG</t>
-  </si>
-  <si>
-    <t>ESI_PHA_ORD_MGMT_ORD_DETAILS_QR</t>
-  </si>
-  <si>
-    <t>ESI_PHA_ORD_MGMT_ORD_DETAILS_YES</t>
-  </si>
-  <si>
-    <t>ESI_PHA_ORD_MGMT_ORD_DETAILS_NO</t>
-  </si>
-  <si>
-    <t>ESI_PHA_ORD_INFO_UNAUTHORIZED_ACCESS_MSG</t>
-  </si>
-  <si>
-    <t>Access Denied. Please ensure you are logged in with the correct credentials.</t>
-  </si>
-  <si>
-    <t>ESI_PHA_ORD_INFO_FAQ_WHEN_CHARGED_FOR_ORDER</t>
-  </si>
-  <si>
-    <t>ESI_PHA_ORD_INFO_FAQ_WHERE_TO_FIND_PRESCRIPTION_ID_CARD</t>
-  </si>
-  <si>
-    <t>ESI_PHA_ORD_INFO_FAQ_HOW_TO_CREATE_ONLINE_ACCOUNT</t>
-  </si>
-  <si>
-    <t>ESI_PHA_ORD_INFO_FAQ_HOW_GET_ALL_MY_MEDICATIONS_AT_HOME_DELIVERY</t>
-  </si>
-  <si>
-    <t>ESI_PHA_ORD_INFO_FAQ_WHAT_TEMPERATURE-SENSITIVE_MEDICATION</t>
-  </si>
-  <si>
-    <t>You won’t be charged for your order until your medication is shipped. If you are enrolled in our Extended Payment Plan, only the first payment will be processed when your medication ships. To check the status of your order, you can log in and go to My Medications under Prescriptions. After you log in, you can also check if there are any ways you could save on your medications.</t>
-  </si>
-  <si>
-    <t>Creating an online Express Scripts account is simple. In just a couple minutes, your account can be ready to go. To register, you can use your prescription ID or your social security number.</t>
-  </si>
-  <si>
-    <t>We offer a can’t-lose-it digital ID card that you can keep with you 24/7. Just download it to your phone, print a copy or do both. You can even save it to your mobile wallet.</t>
-  </si>
-  <si>
-    <t>For the most part, yes! Express Scripts Pharmacy dispenses most brand and generic maintenance medications in a 3-month supply. However, just like other pharmacies, we are unable to stock all medications all the time.</t>
-  </si>
-  <si>
-    <t>We ship your medication in a tamper-evident, weather-resistant package. If your medication is sensitive to extreme hot or cold weather, we ship it in a temperature-controlled package. We carefully calculate how long your order will travel and the weather conditions to make sure that we include enough ice packs to keep your medication safe. Medications that require temperature control are sent via expedited shipping at no extra cost to you.</t>
+    <t>ESI_PHA_ORD_FAQ_WHEN_CHARGED_FOR_ORDER</t>
+  </si>
+  <si>
+    <t>ESI_PHA_ORD_FAQ_WHERE_TO_FIND_PRESCRIPTION_ID_CARD</t>
+  </si>
+  <si>
+    <t>ESI_PHA_ORD_FAQ_HOW_TO_CREATE_ONLINE_ACCOUNT</t>
+  </si>
+  <si>
+    <t>ESI_PHA_ORD_FAQ_HOW_GET_ALL_MY_MEDICATIONS_AT_HOME_DELIVERY</t>
+  </si>
+  <si>
+    <t>ESI_PHA_ORD_FAQ_WHAT_TEMPERATURE-SENSITIVE_MEDICATION</t>
   </si>
 </sst>
 </file>
@@ -285,10 +285,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -610,14 +606,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29329887-49B3-45E3-9F81-89EC8C728205}">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="68.1796875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="87.08984375" customWidth="1"/>
+    <col min="2" max="2" width="87.1796875" customWidth="1"/>
     <col min="3" max="3" width="31.26953125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="38" customWidth="1"/>
     <col min="5" max="5" width="11.54296875" customWidth="1"/>
@@ -628,192 +624,192 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="E5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="E6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="E7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="E8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="E9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="E10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="B11" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="E11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="B12" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="E12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="E13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="E14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="E15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="E16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="E17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -832,7 +828,7 @@
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="37.1796875" customWidth="1"/>
-    <col min="2" max="3" width="31.36328125" customWidth="1"/>
+    <col min="2" max="3" width="31.453125" customWidth="1"/>
     <col min="4" max="4" width="35.26953125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.26953125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.1796875" bestFit="1" customWidth="1"/>
@@ -843,94 +839,94 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" t="s">
         <v>41</v>
       </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>42</v>
-      </c>
-      <c r="E3" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="D4" t="s">
         <v>43</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="319" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="2" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/ESI_PHA_BOT_RESP_BUILDER_EN_CA.xlsx
+++ b/ESI_PHA_BOT_RESP_BUILDER_EN_CA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2243665\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E44FF111-D831-4E21-8C5D-ED8FF9C6912B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{893C7D7F-20F1-4CD0-8BDD-3DC3BA7A4ADE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{1CB3E365-0F38-41A0-882A-60B13BA55A8E}"/>
   </bookViews>
@@ -120,9 +120,6 @@
     <t>ESI_PHA_ORD_INFO_UNAUTHORIZED_ACCESS_MSG</t>
   </si>
   <si>
-    <t>Access Denied. Please ensure you are logged in with the correct credentials.</t>
-  </si>
-  <si>
     <t>You won’t be charged for your order until your medication is shipped. If you are enrolled in our Extended Payment Plan, only the first payment will be processed when your medication ships. To check the status of your order, you can log in and go to My Medications under Prescriptions. After you log in, you can also check if there are any ways you could save on your medications.</t>
   </si>
   <si>
@@ -205,6 +202,9 @@
   </si>
   <si>
     <t>ESI_PHA_ORD_FAQ_WHAT_TEMPERATURE-SENSITIVE_MEDICATION</t>
+  </si>
+  <si>
+    <t>Something Went Wrong. Please ensure you are logged in with the correct credentials.</t>
   </si>
 </sst>
 </file>
@@ -606,8 +606,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29329887-49B3-45E3-9F81-89EC8C728205}">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -751,7 +751,7 @@
         <v>26</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="E12" t="s">
         <v>7</v>
@@ -759,10 +759,10 @@
     </row>
     <row r="13" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E13" t="s">
         <v>7</v>
@@ -770,10 +770,10 @@
     </row>
     <row r="14" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E14" t="s">
         <v>7</v>
@@ -781,10 +781,10 @@
     </row>
     <row r="15" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E15" t="s">
         <v>7</v>
@@ -792,10 +792,10 @@
     </row>
     <row r="16" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E16" t="s">
         <v>7</v>
@@ -803,10 +803,10 @@
     </row>
     <row r="17" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E17" t="s">
         <v>7</v>
@@ -842,91 +842,91 @@
         <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
         <v>37</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" t="s">
         <v>39</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" t="s">
         <v>40</v>
       </c>
-      <c r="C3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>41</v>
-      </c>
-      <c r="E3" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" t="s">
         <v>39</v>
       </c>
-      <c r="B4" t="s">
-        <v>40</v>
-      </c>
       <c r="C4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" t="s">
         <v>43</v>
-      </c>
-      <c r="E4" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" t="s">
         <v>45</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" t="s">
         <v>46</v>
-      </c>
-      <c r="C5" t="s">
-        <v>38</v>
-      </c>
-      <c r="F5" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="319" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>49</v>
-      </c>
       <c r="C6" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
